--- a/database/WRIT_SKILLS.xlsx
+++ b/database/WRIT_SKILLS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahkennard/Disinformation_Game/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahkennard/Disinformation_Game/Operation_Otter/OperationOtter/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607E1F17-CE8E-D447-A063-3DE2F3E7841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59A1DEE-7969-9B49-9F7D-2F056F373ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -130,7 +130,40 @@
     <t>END</t>
   </si>
   <si>
-    <t>b</t>
+    <t>People are much more likely to spread misinformation when it causes them to feel a strong emotion. Anger and Disgust make people repost without verifying. Use language that elicits these emotions to further your campaign.</t>
+  </si>
+  <si>
+    <t>Laden Words refers to language that has a heavy connotation. Using words like "Pedophelia" or "Communist" increases the emotionality of your statements. Use words with heavy connotations to further your campaign.</t>
+  </si>
+  <si>
+    <t>Disinformation actors use expert terminology to create the appearance of being an expert in a field. This percieved expertise raises the percieved validity of your claims. Use technical jargon and expert terminology to increase the strength of your responses.</t>
+  </si>
+  <si>
+    <t>The Illusory Truth Effect is the phenomena that people use familiarity to determine the veracity of statements. With this skill, you will repost claims multiple times to increase their effect.</t>
+  </si>
+  <si>
+    <t>Conspacy theories often share a common dialogue. Upgrade further in this tree to learn techniques common among conspiracy theorists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure your statements about an event using hypothetical terms to decrease their falsifiability. Its "possible" that fire "could" have started on its own, but the deep-state "would" still benefit from it. Use these terms to increase the strength of your responses. </t>
+  </si>
+  <si>
+    <t>Meta-discursive references are the words used to describe the discussion of an event. Official sources "claim" that this "version" of events happened naturally, but not all parties agree with that "story". These words create the assumption that there are multiple versions of the event, creating space for conspiracy theorists to fill the gaps.</t>
+  </si>
+  <si>
+    <t>A logical fallacy is an argument that may seem correct initially but is based on false assumptions. Upgrade further to learn more about specific logical fallacies found in conspiracy theory discourse.</t>
+  </si>
+  <si>
+    <t>Ad Vercundium states that "an argument is strong because an expert says so." A scientist I know said that climate change is fake, therefore, climate change is not real. Use this in responses to increase their strength.</t>
+  </si>
+  <si>
+    <t>Ad Populum states that "an argument is strong because everybody agrees with it." I know my dog ate my cookie because my whole family believes he ate the cookie. Use this fallacy in responses to increase their strength.</t>
+  </si>
+  <si>
+    <t>Sign theory is a linguistic term that refers to replacing common expressions with sinister meaning to make everyday sayings seem related to conspiracy theories. Replacing "Cheese Pizza" with the phrase "child pornagraphy" creates malicious meaning in innocent dialogue.</t>
+  </si>
+  <si>
+    <t>Dog Whistles emit a tone only audible to dogs and causes them to gather. Similarly, a linguistic dog whistle is phrase that seems ordinary to most people but is a signal to those in specifc groups. The number "88" is dog whistle to neo-nazis. Create your own dog whistles to further your campaign.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +431,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -514,7 +547,7 @@
         <v>1.25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -555,10 +588,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="2">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -602,7 +635,7 @@
         <v>1.25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -646,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -690,7 +723,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -734,7 +767,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -778,7 +811,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -822,7 +855,7 @@
         <v>500</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -866,7 +899,7 @@
         <v>500</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -907,10 +940,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="2">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -951,10 +984,10 @@
         <v>16</v>
       </c>
       <c r="G13" s="2">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>

--- a/database/WRIT_SKILLS.xlsx
+++ b/database/WRIT_SKILLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahkennard/Disinformation_Game/Operation_Otter/OperationOtter/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59A1DEE-7969-9B49-9F7D-2F056F373ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0423E25F-2FA6-464B-8DF6-6FE0515D8AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
